--- a/Koceto/Lecture08/bugs.xlsx
+++ b/Koceto/Lecture08/bugs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dertan\Documents\SkilloCourse\Lecture08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dertan\Documents\SkilloCourse\HomeworksClone\Koceto\Lecture08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="automationpractice.com" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="124">
   <si>
     <t>Priority</t>
   </si>
@@ -53,67 +53,22 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>Sometimes one picture is more descriptive than 10 lines of text. Here we can attach files if needed</t>
-  </si>
-  <si>
-    <t>When the bug is created</t>
-  </si>
-  <si>
-    <t>Who created the bug</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
-    <t>Area of the software which bug is related to. For ex. Login, Payments, Basket etc.</t>
-  </si>
-  <si>
     <t>Version/Build number (Found in)</t>
   </si>
   <si>
-    <t>Number of the build/release where the bug is found</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
-    <t>OS version, Browser version etc.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Additional info. Anyone can add comments in this field</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Audit Log</t>
-  </si>
-  <si>
-    <t>History of the changes for this bug</t>
-  </si>
-  <si>
-    <t>Unique id of a bug. Usually include project iD. For ex. If we have Project Skillo (PS) id could be PSB001. PS means Project Skillo and B stands for Bug</t>
-  </si>
-  <si>
-    <t>Clear, short and descriptive. For simple bugs it should be possible to understand the bug only by name</t>
-  </si>
-  <si>
-    <t>How important is the bug for the company. Priority means how important is the problem for the business. Usually priority is P1-P4 (P1 is the highest priority)</t>
-  </si>
-  <si>
-    <t>It is a technical characteristic. Severity is the impact over the software. Critical severity cause system to crash etc. Usually severity has levels - S1 - S4 (S1 is the highest severity</t>
-  </si>
-  <si>
-    <t>More detailed explanation of the issue. It is not required if the name is enough and clear</t>
-  </si>
-  <si>
-    <t>Steps needed in order to reproduce the issue. Expected results on each step are not needed. Only for the last step of the bug (which is the which is the actual problem) we need to have expected and actual result.</t>
-  </si>
-  <si>
-    <t>Status of the the issue based on the bug life cycle. For ex. (Opened, Resolved, Reopened, Closed). Based on the bug life cycle</t>
   </si>
   <si>
     <t>APB0001</t>
@@ -520,14 +475,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148:B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,25 +1450,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1521,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,31 +1508,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,54 +1540,54 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -1641,37 +1596,37 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,19 +1666,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,54 +1686,54 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -1787,37 +1742,37 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,54 +1832,54 @@
         <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -1933,37 +1888,37 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,25 +1958,25 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,54 +1984,54 @@
         <v>9</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -2085,552 +2040,432 @@
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="6"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B105" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B124" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B143" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="7"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B151" s="4"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B153" s="4"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B162" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2653,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
@@ -2666,25 +2501,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,25 +2559,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,54 +2585,54 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -2806,37 +2641,37 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2695,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,31 +2711,31 @@
         <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,54 +2743,54 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -2964,37 +2799,37 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,31 +2869,31 @@
         <v>7</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,54 +2901,54 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3122,37 +2957,37 @@
         <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,25 +3027,25 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,54 +3053,54 @@
         <v>9</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3274,37 +3109,37 @@
         <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,25 +3179,25 @@
         <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,54 +3205,54 @@
         <v>9</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3426,37 +3261,37 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,25 +3331,25 @@
         <v>7</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,54 +3357,54 @@
         <v>9</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3578,37 +3413,37 @@
         <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3467,7 @@
         <v>8</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3648,25 +3483,25 @@
         <v>7</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,54 +3509,54 @@
         <v>9</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3730,37 +3565,37 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="6"/>
+      <c r="B157" s="7"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,25 +3635,25 @@
         <v>7</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,54 +3661,54 @@
         <v>9</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -3882,37 +3717,37 @@
         <v>4</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="6"/>
+      <c r="B179" s="7"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,25 +3787,25 @@
         <v>7</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,54 +3813,54 @@
         <v>9</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -4034,30 +3869,30 @@
         <v>4</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="6"/>
+      <c r="B201" s="7"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
@@ -4115,47 +3950,47 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -4164,30 +3999,30 @@
         <v>4</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B223" s="6"/>
+      <c r="B223" s="7"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -4245,47 +4080,47 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B237" s="3"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B241" s="5">
         <v>43258</v>
       </c>
     </row>
@@ -4294,30 +4129,30 @@
         <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A113:B115"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="A46:B48"/>
+    <mergeCell ref="A69:B71"/>
+    <mergeCell ref="A91:B93"/>
     <mergeCell ref="A135:B137"/>
     <mergeCell ref="A157:B159"/>
     <mergeCell ref="A179:B181"/>
     <mergeCell ref="A201:B203"/>
     <mergeCell ref="A223:B225"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="A46:B48"/>
-    <mergeCell ref="A69:B71"/>
-    <mergeCell ref="A91:B93"/>
-    <mergeCell ref="A113:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Koceto/Lecture08/bugs.xlsx
+++ b/Koceto/Lecture08/bugs.xlsx
@@ -16,6 +16,7 @@
     <sheet name="phptravels.com" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1437,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148:B162"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,17 +4143,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A135:B137"/>
+    <mergeCell ref="A157:B159"/>
+    <mergeCell ref="A179:B181"/>
+    <mergeCell ref="A201:B203"/>
+    <mergeCell ref="A223:B225"/>
     <mergeCell ref="A113:B115"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="A46:B48"/>
     <mergeCell ref="A69:B71"/>
     <mergeCell ref="A91:B93"/>
-    <mergeCell ref="A135:B137"/>
-    <mergeCell ref="A157:B159"/>
-    <mergeCell ref="A179:B181"/>
-    <mergeCell ref="A201:B203"/>
-    <mergeCell ref="A223:B225"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
